--- a/Master/MasterData/Anpan.xlsx
+++ b/Master/MasterData/Anpan.xlsx
@@ -257,7 +257,7 @@
   <dimension ref="A5:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -469,12 +469,24 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>

--- a/Master/MasterData/Anpan.xlsx
+++ b/Master/MasterData/Anpan.xlsx
@@ -257,7 +257,7 @@
   <dimension ref="A5:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -473,10 +473,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>300</v>

--- a/Master/MasterData/Anpan.xlsx
+++ b/Master/MasterData/Anpan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DropId</t>
   </si>
   <si>
     <t xml:space="preserve">u32</t>
@@ -254,10 +257,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:G28"/>
+  <dimension ref="A5:H28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -284,30 +287,36 @@
       <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -325,6 +334,9 @@
         <v>20</v>
       </c>
       <c r="G7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -347,6 +359,9 @@
       <c r="G8" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4" t="n">
@@ -367,6 +382,9 @@
       <c r="G9" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="n">
@@ -387,6 +405,9 @@
       <c r="G10" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="n">
@@ -407,6 +428,9 @@
       <c r="G11" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="n">
@@ -427,6 +451,9 @@
       <c r="G12" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4" t="n">
@@ -447,6 +474,9 @@
       <c r="G13" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="n">
@@ -467,6 +497,9 @@
       <c r="G14" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="n">
@@ -486,6 +519,9 @@
       </c>
       <c r="G15" s="5" t="n">
         <v>10</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -495,6 +531,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
@@ -503,6 +540,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
@@ -511,6 +549,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
@@ -519,6 +558,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
@@ -527,6 +567,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
@@ -535,6 +576,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
@@ -543,6 +585,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
@@ -551,6 +594,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
@@ -559,6 +603,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
@@ -567,6 +612,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
@@ -575,6 +621,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
@@ -583,6 +630,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
@@ -591,6 +639,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Master/MasterData/Anpan.xlsx
+++ b/Master/MasterData/Anpan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -28,12 +28,21 @@
     <t xml:space="preserve">Hp</t>
   </si>
   <si>
-    <t xml:space="preserve">Atk</t>
+    <t xml:space="preserve">Str</t>
   </si>
   <si>
     <t xml:space="preserve">Def</t>
   </si>
   <si>
+    <t xml:space="preserve">Int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exp</t>
   </si>
   <si>
@@ -44,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">u32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s32</t>
   </si>
   <si>
     <t xml:space="preserve">float</t>
@@ -257,10 +263,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:H28"/>
+  <dimension ref="A5:K28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -290,33 +296,51 @@
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -334,9 +358,18 @@
         <v>20</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H7" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -357,9 +390,18 @@
         <v>30</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H8" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -380,9 +422,18 @@
         <v>40</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H9" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -403,9 +454,18 @@
         <v>50</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H10" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -426,9 +486,18 @@
         <v>60</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H11" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -449,9 +518,18 @@
         <v>70</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="H12" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -472,9 +550,18 @@
         <v>80</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="H13" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -495,9 +582,18 @@
         <v>90</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="H14" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -515,12 +611,21 @@
         <v>300</v>
       </c>
       <c r="F15" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="G15" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="G15" s="5" t="n">
-        <v>10</v>
-      </c>
       <c r="H15" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -532,6 +637,9 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
@@ -541,6 +649,9 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
@@ -550,6 +661,9 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
@@ -559,6 +673,9 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
@@ -568,6 +685,9 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
@@ -577,6 +697,9 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
@@ -586,6 +709,9 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
@@ -595,6 +721,9 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
@@ -604,6 +733,9 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
@@ -613,6 +745,9 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
@@ -622,6 +757,9 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
@@ -631,6 +769,9 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
@@ -640,6 +781,9 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Master/MasterData/Anpan.xlsx
+++ b/Master/MasterData/Anpan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">Scale</t>
   </si>
   <si>
+    <t xml:space="preserve">AIId</t>
+  </si>
+  <si>
     <t xml:space="preserve">DropId</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u8</t>
   </si>
   <si>
     <t xml:space="preserve">$ITEM</t>
@@ -263,10 +269,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:K28"/>
+  <dimension ref="A5:L28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -305,42 +311,48 @@
       <c r="K5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -370,6 +382,9 @@
         <v>1</v>
       </c>
       <c r="K7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -404,6 +419,9 @@
       <c r="K8" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="L8" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4" t="n">
@@ -436,6 +454,9 @@
       <c r="K9" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="L9" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="n">
@@ -468,6 +489,9 @@
       <c r="K10" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="L10" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="n">
@@ -500,6 +524,9 @@
       <c r="K11" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="L11" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="n">
@@ -532,6 +559,9 @@
       <c r="K12" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="L12" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4" t="n">
@@ -564,6 +594,9 @@
       <c r="K13" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="L13" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="n">
@@ -596,6 +629,9 @@
       <c r="K14" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="L14" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="n">
@@ -626,6 +662,9 @@
         <v>10</v>
       </c>
       <c r="K15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -640,6 +679,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
@@ -652,6 +692,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
@@ -664,6 +705,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
@@ -676,6 +718,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
@@ -688,6 +731,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
@@ -700,6 +744,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
@@ -712,6 +757,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
@@ -724,6 +770,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
@@ -736,6 +783,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
@@ -748,6 +796,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
@@ -760,6 +809,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
@@ -772,6 +822,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
@@ -784,6 +835,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Master/MasterData/Anpan.xlsx
+++ b/Master/MasterData/Anpan.xlsx
@@ -272,7 +272,7 @@
   <dimension ref="A5:L28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -638,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>100</v>
@@ -662,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="5" t="n">
         <v>1</v>
